--- a/data/GOZO_gas.xlsx
+++ b/data/GOZO_gas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2B4FE-E447-9748-8D55-A8699D6F840F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260A42A-815A-A94E-998B-11EAE4BF424E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
+    <workbookView xWindow="32460" yWindow="3860" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,19 +56,19 @@
     <t>Decline</t>
   </si>
   <si>
-    <t xml:space="preserve">0 to 5 minutes </t>
-  </si>
-  <si>
-    <t>6 to 15 minutes</t>
-  </si>
-  <si>
-    <t>16 to 25 minutes</t>
-  </si>
-  <si>
-    <t>26 to 35 minutes</t>
-  </si>
-  <si>
-    <t>36 to 45 minutes</t>
+    <t xml:space="preserve">Complete 60 to 69% of reading assignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 50 to 59% of reading assignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 70 to 79% of reading assignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 80 to 89% of reading assignment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 90 to 100% of reading assignment </t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -445,7 +445,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -453,7 +453,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -461,7 +461,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -470,15 +470,15 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_gas.xlsx
+++ b/data/GOZO_gas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0260A42A-815A-A94E-998B-11EAE4BF424E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56709553-F6F9-3146-8752-DD1E7D568214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32460" yWindow="3860" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
@@ -56,19 +56,19 @@
     <t>Decline</t>
   </si>
   <si>
-    <t xml:space="preserve">Complete 60 to 69% of reading assignment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 50 to 59% of reading assignment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 70 to 79% of reading assignment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 80 to 89% of reading assignment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 90 to 100% of reading assignment </t>
+    <t xml:space="preserve">Complete 50 to 60% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 10 to 29% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 20 to 29% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 30 to 39% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 40 to 49% of weekly assginments </t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/GOZO_gas.xlsx
+++ b/data/GOZO_gas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56709553-F6F9-3146-8752-DD1E7D568214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B62279-CCD6-A244-BD27-DA857A8A5790}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32460" yWindow="3860" windowWidth="27640" windowHeight="15800" xr2:uid="{D4CC0A2D-E72B-AB45-9E7A-41F2361D5FC0}"/>
   </bookViews>
@@ -56,19 +56,19 @@
     <t>Decline</t>
   </si>
   <si>
-    <t xml:space="preserve">Complete 50 to 60% of weekly assignments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 10 to 29% of weekly assignments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 20 to 29% of weekly assignments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 30 to 39% of weekly assignments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete 40 to 49% of weekly assginments </t>
+    <t xml:space="preserve">Complete 0 to 19% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 20 to 39% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 40 to 59% of weekly assignments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 60 to 79% of weekly assginments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete 80 to 100% of weekly assignments </t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
